--- a/artfynd/A 31917-2021.xlsx
+++ b/artfynd/A 31917-2021.xlsx
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>86419304</v>
+        <v>86419294</v>
       </c>
       <c r="B4" t="n">
-        <v>90653</v>
+        <v>77506</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,25 +926,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>440783.8270494898</v>
+        <v>440686.1394479795</v>
       </c>
       <c r="R4" t="n">
-        <v>6707144.091754919</v>
+        <v>6707147.171128325</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1000,6 +1000,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>På tall</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1026,7 +1031,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>86419294</v>
+        <v>86419305</v>
       </c>
       <c r="B5" t="n">
         <v>77506</v>
@@ -1066,10 +1071,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>440686.1394479795</v>
+        <v>440606.8734944779</v>
       </c>
       <c r="R5" t="n">
-        <v>6707147.171128325</v>
+        <v>6707280.052989913</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1116,7 +1121,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>På tall</t>
+          <t>På flera tallar</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1143,7 +1148,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>86419305</v>
+        <v>86419313</v>
       </c>
       <c r="B6" t="n">
         <v>77506</v>
@@ -1183,10 +1188,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>440606.8734944779</v>
+        <v>440607.1726549119</v>
       </c>
       <c r="R6" t="n">
-        <v>6707280.052989913</v>
+        <v>6707238.159541409</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1233,7 +1238,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>På flera tallar</t>
+          <t>rikligt på flera tallar</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1260,7 +1265,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>86419296</v>
+        <v>86419293</v>
       </c>
       <c r="B7" t="n">
         <v>77506</v>
@@ -1300,10 +1305,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>440814.1817916233</v>
+        <v>440687.1425972193</v>
       </c>
       <c r="R7" t="n">
-        <v>6707128.810180089</v>
+        <v>6707148.140317255</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1346,11 +1351,6 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>På tall</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1377,10 +1377,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>86419290</v>
+        <v>86419304</v>
       </c>
       <c r="B8" t="n">
-        <v>8377</v>
+        <v>90653</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1393,21 +1393,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>106545</v>
+        <v>4364</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>440814.1656648018</v>
+        <v>440783.8270494898</v>
       </c>
       <c r="R8" t="n">
-        <v>6707127.824798071</v>
+        <v>6707144.091754919</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>86419313</v>
+        <v>86419296</v>
       </c>
       <c r="B9" t="n">
         <v>77506</v>
@@ -1529,10 +1529,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>440607.1726549119</v>
+        <v>440814.1817916233</v>
       </c>
       <c r="R9" t="n">
-        <v>6707238.159541409</v>
+        <v>6707128.810180089</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>rikligt på flera tallar</t>
+          <t>På tall</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1606,10 +1606,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>86419293</v>
+        <v>86419290</v>
       </c>
       <c r="B10" t="n">
-        <v>77506</v>
+        <v>8377</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1618,25 +1618,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1646,10 +1646,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>440687.1425972193</v>
+        <v>440814.1656648018</v>
       </c>
       <c r="R10" t="n">
-        <v>6707148.140317255</v>
+        <v>6707127.824798071</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>

--- a/artfynd/A 31917-2021.xlsx
+++ b/artfynd/A 31917-2021.xlsx
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>86419294</v>
+        <v>86419304</v>
       </c>
       <c r="B4" t="n">
-        <v>77506</v>
+        <v>90653</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,25 +926,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>440686.1394479795</v>
+        <v>440783.8270494898</v>
       </c>
       <c r="R4" t="n">
-        <v>6707147.171128325</v>
+        <v>6707144.091754919</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1000,11 +1000,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>På tall</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1031,7 +1026,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>86419305</v>
+        <v>86419294</v>
       </c>
       <c r="B5" t="n">
         <v>77506</v>
@@ -1071,10 +1066,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>440606.8734944779</v>
+        <v>440686.1394479795</v>
       </c>
       <c r="R5" t="n">
-        <v>6707280.052989913</v>
+        <v>6707147.171128325</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1121,7 +1116,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>På flera tallar</t>
+          <t>På tall</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1148,7 +1143,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>86419313</v>
+        <v>86419305</v>
       </c>
       <c r="B6" t="n">
         <v>77506</v>
@@ -1188,10 +1183,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>440607.1726549119</v>
+        <v>440606.8734944779</v>
       </c>
       <c r="R6" t="n">
-        <v>6707238.159541409</v>
+        <v>6707280.052989913</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1238,7 +1233,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>rikligt på flera tallar</t>
+          <t>På flera tallar</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1265,7 +1260,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>86419293</v>
+        <v>86419296</v>
       </c>
       <c r="B7" t="n">
         <v>77506</v>
@@ -1305,10 +1300,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>440687.1425972193</v>
+        <v>440814.1817916233</v>
       </c>
       <c r="R7" t="n">
-        <v>6707148.140317255</v>
+        <v>6707128.810180089</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1351,6 +1346,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>På tall</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1377,10 +1377,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>86419304</v>
+        <v>86419290</v>
       </c>
       <c r="B8" t="n">
-        <v>90653</v>
+        <v>8377</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1393,21 +1393,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>106545</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>440783.8270494898</v>
+        <v>440814.1656648018</v>
       </c>
       <c r="R8" t="n">
-        <v>6707144.091754919</v>
+        <v>6707127.824798071</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>86419296</v>
+        <v>86419313</v>
       </c>
       <c r="B9" t="n">
         <v>77506</v>
@@ -1529,10 +1529,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>440814.1817916233</v>
+        <v>440607.1726549119</v>
       </c>
       <c r="R9" t="n">
-        <v>6707128.810180089</v>
+        <v>6707238.159541409</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>På tall</t>
+          <t>rikligt på flera tallar</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1606,10 +1606,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>86419290</v>
+        <v>86419293</v>
       </c>
       <c r="B10" t="n">
-        <v>8377</v>
+        <v>77506</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1618,25 +1618,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1646,10 +1646,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>440814.1656648018</v>
+        <v>440687.1425972193</v>
       </c>
       <c r="R10" t="n">
-        <v>6707127.824798071</v>
+        <v>6707148.140317255</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
